--- a/doc/K1160定氮仪屏幕显示功能测试故障记录表2016.06.06排序.xlsx
+++ b/doc/K1160定氮仪屏幕显示功能测试故障记录表2016.06.06排序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19360" windowHeight="6720" activeTab="1"/>
+    <workbookView windowWidth="14980" windowHeight="8540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,6 +90,9 @@
     <t>导出后的数据都没有单位；</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>调试界面中,柱塞泵向下和向上的命令重复</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
   </si>
   <si>
     <t>自检完成后,按NO应返回登录界面</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>自检完成后,自动进行换酸清洗的设置未执行.</t>
@@ -254,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -268,38 +268,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -311,20 +284,6 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -341,6 +300,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -349,7 +315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -362,7 +328,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -373,15 +358,30 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -406,7 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,25 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +507,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,17 +545,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
+      <left style="thin">
+        <color indexed="23"/>
       </left>
-      <right style="double">
-        <color indexed="63"/>
+      <right style="thin">
+        <color indexed="23"/>
       </right>
-      <top style="double">
-        <color indexed="63"/>
+      <top style="thin">
+        <color indexed="23"/>
       </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,47 +586,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,145 +615,145 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,8 +827,8 @@
     <cellStyle name="40% - 强调文字颜色 3" xfId="43"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="44"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="46"/>
-    <cellStyle name="输出" xfId="47"/>
+    <cellStyle name="输出" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
     <cellStyle name="超链接" xfId="48" builtinId="8"/>
   </cellStyles>
 </styleSheet>
@@ -1583,8 +1583,8 @@
   <sheetPr/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1728,7 +1728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1739,10 +1739,13 @@
       <c r="D10" s="1">
         <v>9</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" ht="30" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1757,7 +1760,7 @@
     </row>
     <row r="12" ht="30" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1772,7 +1775,7 @@
     </row>
     <row r="13" ht="30" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1785,9 +1788,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:4">
+    <row r="14" ht="30" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1796,10 +1799,13 @@
       <c r="D14" s="1">
         <v>13</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" ht="30" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1814,7 +1820,7 @@
     </row>
     <row r="16" ht="45" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="17" ht="30" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1844,7 +1850,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1854,10 +1860,10 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1867,6 +1873,9 @@
       <c r="C19" s="2"/>
       <c r="D19" s="1">
         <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">

--- a/doc/K1160定氮仪屏幕显示功能测试故障记录表2016.06.06排序.xlsx
+++ b/doc/K1160定氮仪屏幕显示功能测试故障记录表2016.06.06排序.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>K1160定氮仪显示功能测试故障记录表</t>
   </si>
@@ -123,6 +123,9 @@
     <t>实验为结束时点击返回，数据库保存未完成实验的数据；</t>
   </si>
   <si>
+    <t>？？？</t>
+  </si>
+  <si>
     <t>数据库数据有重复保存现象；</t>
   </si>
   <si>
@@ -138,9 +141,15 @@
     <t>点击数据库菜单后，有约一秒的刷新，若使用长时间使用后保存数据过大（超过100页），数据库刷新时间是否会过长；</t>
   </si>
   <si>
+    <t>不会</t>
+  </si>
+  <si>
     <t>溯源页面刷新较慢，数据增多刷新越慢</t>
   </si>
   <si>
+    <t>不会 延迟固定1.5s</t>
+  </si>
+  <si>
     <t>测试方法界面，方法全部删除后，保留最后一条方法的名称</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
   </si>
   <si>
     <t>云服务界面，上传或下载的文件名能否直观些，不明白什么意思；</t>
+  </si>
+  <si>
+    <t>！！！</t>
   </si>
   <si>
     <t>溯源缺少方法修改记录、删除记录、用户修改记录、删除记录等等</t>
@@ -255,9 +267,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -268,41 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -315,12 +293,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -328,7 +312,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -339,28 +342,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -373,7 +357,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -384,6 +368,34 @@
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -406,7 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,13 +442,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,67 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,34 +524,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -563,8 +560,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,26 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
+      <left style="thin">
+        <color indexed="22"/>
       </left>
-      <right style="double">
-        <color indexed="63"/>
+      <right style="thin">
+        <color indexed="22"/>
       </right>
-      <top style="double">
-        <color indexed="63"/>
+      <top style="thin">
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,145 +627,145 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1581,13 +1593,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
@@ -1625,7 +1637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="1:5">
+    <row r="3" ht="45" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1637,6 +1649,9 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1878,7 +1893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="1:4">
+    <row r="20" ht="30" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1889,10 +1904,13 @@
       <c r="D20" s="1">
         <v>19</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1904,7 +1922,7 @@
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1916,7 +1934,7 @@
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -1926,9 +1944,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" ht="45" spans="1:4">
+    <row r="24" ht="45" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1937,10 +1955,13 @@
       <c r="D24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" ht="60" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="60" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1949,10 +1970,13 @@
       <c r="D25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" ht="30" spans="1:4">
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" ht="45" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1961,10 +1985,13 @@
       <c r="D26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" ht="31.5" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" ht="31.5" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -1973,24 +2000,27 @@
       <c r="D27" s="1">
         <v>25</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" ht="60" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" ht="30" spans="1:4">
+    <row r="29" ht="30" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1999,10 +2029,13 @@
       <c r="D29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" ht="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" ht="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -2011,22 +2044,28 @@
       <c r="D30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" ht="60" spans="1:4">
+      <c r="E30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" ht="60" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" ht="45" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -2038,7 +2077,7 @@
     </row>
     <row r="33" ht="30" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -2050,7 +2089,7 @@
     </row>
     <row r="34" ht="30" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -2062,7 +2101,7 @@
     </row>
     <row r="35" ht="30" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -2074,7 +2113,7 @@
     </row>
     <row r="36" ht="60" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -2084,9 +2123,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" ht="63" spans="1:4">
+    <row r="37" ht="63" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B37" s="4">
         <v>2</v>
@@ -2095,10 +2134,13 @@
       <c r="D37" s="1">
         <v>35</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" ht="30" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -2110,7 +2152,7 @@
     </row>
     <row r="39" ht="30" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -2122,7 +2164,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -2134,10 +2176,10 @@
     </row>
     <row r="41" ht="30" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="1">
@@ -2146,10 +2188,10 @@
     </row>
     <row r="42" ht="105" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1">
@@ -2158,10 +2200,10 @@
     </row>
     <row r="43" ht="45" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1">
@@ -2170,10 +2212,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1">
@@ -2182,10 +2224,10 @@
     </row>
     <row r="45" ht="30" spans="1:4">
       <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1">
@@ -2194,10 +2236,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="1">
@@ -2206,100 +2248,100 @@
     </row>
     <row r="47" ht="30" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" ht="60" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" ht="30" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" ht="30" spans="1:3">
       <c r="A51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" ht="45" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" ht="30" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" ht="45" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" ht="60" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" ht="47.25" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" ht="60" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2"/>
     </row>

--- a/doc/K1160定氮仪屏幕显示功能测试故障记录表2016.06.06排序.xlsx
+++ b/doc/K1160定氮仪屏幕显示功能测试故障记录表2016.06.06排序.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>K1160定氮仪显示功能测试故障记录表</t>
   </si>
@@ -75,6 +75,12 @@
     <t>实验过程中，时间不准确</t>
   </si>
   <si>
+    <t>还是不准</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
     <t>蒸馏时间设置300s，实际试验中蒸馏时间不足180s；(显示的时间不准确)</t>
   </si>
   <si>
@@ -84,9 +90,15 @@
     <t>手动测试界面，滴定液体积添加量最多为150微升，建议改为1000微升；</t>
   </si>
   <si>
+    <t>实际添加体积不正确,只发送一个字节的数据，应该发两字节的数据</t>
+  </si>
+  <si>
     <t>手动测试界面，蒸馏的通讯协议有问题；</t>
   </si>
   <si>
+    <t>数据小于256时不发送高字节0x00</t>
+  </si>
+  <si>
     <t>导出后的数据都没有单位；</t>
   </si>
   <si>
@@ -108,6 +120,12 @@
     <t>设置界面中的 方法系数的选择 未保存.加入到数据库中.</t>
   </si>
   <si>
+    <t>没改</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
     <t>清洗设置界面的消化管清洗时间改为消化管排废时间；检查时候还有其他界面需要修改；</t>
   </si>
   <si>
@@ -124,6 +142,9 @@
   </si>
   <si>
     <t>？？？</t>
+  </si>
+  <si>
+    <t>实验过程中点击返回，实验数据不应保存在数据库中；</t>
   </si>
   <si>
     <t>数据库数据有重复保存现象；</t>
@@ -267,9 +288,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -280,20 +301,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -305,53 +353,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -365,7 +369,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -377,25 +413,10 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -418,13 +439,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,31 +493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,37 +511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,11 +543,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,32 +611,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,17 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,145 +648,145 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1593,13 +1614,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="29.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
@@ -1637,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="1:6">
+    <row r="3" ht="45" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1651,7 +1672,7 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1670,7 +1691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1684,10 +1705,16 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" ht="47.25" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
@@ -1700,7 +1727,7 @@
     </row>
     <row r="7" ht="45" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1713,9 +1740,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="45" spans="1:5">
+    <row r="8" ht="120" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1727,10 +1754,16 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" ht="30" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="60" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1742,10 +1775,16 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1755,12 +1794,12 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1775,7 +1814,7 @@
     </row>
     <row r="12" ht="30" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1790,7 +1829,7 @@
     </row>
     <row r="13" ht="30" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1805,7 +1844,7 @@
     </row>
     <row r="14" ht="30" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1815,12 +1854,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="30" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1832,10 +1871,16 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" ht="45" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1850,7 +1895,7 @@
     </row>
     <row r="17" ht="30" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1865,7 +1910,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1875,12 +1920,12 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1890,12 +1935,15 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" ht="30" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="90" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1905,12 +1953,18 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1922,7 +1976,7 @@
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1934,7 +1988,7 @@
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -1946,7 +2000,7 @@
     </row>
     <row r="24" ht="45" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1961,7 +2015,7 @@
     </row>
     <row r="25" ht="60" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1971,12 +2025,12 @@
         <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1986,12 +2040,12 @@
         <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="31.5" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -2006,13 +2060,13 @@
     </row>
     <row r="28" ht="60" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
@@ -2020,7 +2074,7 @@
     </row>
     <row r="29" ht="30" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -2030,12 +2084,12 @@
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -2045,16 +2099,16 @@
         <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="60" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
@@ -2065,7 +2119,7 @@
     </row>
     <row r="32" ht="45" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -2077,7 +2131,7 @@
     </row>
     <row r="33" ht="30" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -2089,7 +2143,7 @@
     </row>
     <row r="34" ht="30" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -2101,7 +2155,7 @@
     </row>
     <row r="35" ht="30" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -2113,7 +2167,7 @@
     </row>
     <row r="36" ht="60" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -2125,7 +2179,7 @@
     </row>
     <row r="37" ht="63" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B37" s="4">
         <v>2</v>
@@ -2140,7 +2194,7 @@
     </row>
     <row r="38" ht="30" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -2152,7 +2206,7 @@
     </row>
     <row r="39" ht="30" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -2164,7 +2218,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -2176,10 +2230,10 @@
     </row>
     <row r="41" ht="30" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="1">
@@ -2188,10 +2242,10 @@
     </row>
     <row r="42" ht="105" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1">
@@ -2200,10 +2254,10 @@
     </row>
     <row r="43" ht="45" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1">
@@ -2212,10 +2266,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1">
@@ -2224,10 +2278,10 @@
     </row>
     <row r="45" ht="30" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1">
@@ -2236,10 +2290,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="1">
@@ -2248,100 +2302,100 @@
     </row>
     <row r="47" ht="30" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" ht="60" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" ht="30" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" ht="30" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" ht="45" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" ht="30" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" ht="45" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" ht="60" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" ht="47.25" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" ht="60" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2"/>
     </row>

--- a/doc/K1160定氮仪屏幕显示功能测试故障记录表2016.06.06排序.xlsx
+++ b/doc/K1160定氮仪屏幕显示功能测试故障记录表2016.06.06排序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14980" windowHeight="8540" activeTab="1"/>
+    <workbookView windowWidth="19420" windowHeight="8540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>K1160定氮仪显示功能测试故障记录表</t>
   </si>
@@ -123,9 +123,6 @@
     <t>没改</t>
   </si>
   <si>
-    <t>```</t>
-  </si>
-  <si>
     <t>清洗设置界面的消化管清洗时间改为消化管排废时间；检查时候还有其他界面需要修改；</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
     <t>实验过程中，安全门异常时，界面安全门异常图标反应缓慢</t>
   </si>
   <si>
+    <t>以后更改</t>
+  </si>
+  <si>
     <t>调试界面的 仪器传感器状态 刷新慢</t>
   </si>
   <si>
@@ -189,6 +189,9 @@
     <t>！！！</t>
   </si>
   <si>
+    <t>以后再改</t>
+  </si>
+  <si>
     <t>溯源缺少方法修改记录、删除记录、用户修改记录、删除记录等等</t>
   </si>
   <si>
@@ -210,10 +213,16 @@
     <t>数据库保存大量实验记录时，如果需查找到某一时间或某一批次的实验记录需要逐页查找耗费大量时间；</t>
   </si>
   <si>
+    <t>挂起</t>
+  </si>
+  <si>
     <t>网络设置界面中，网络列表的下拉条不好用，拖动下拉条不动作；点击上拉下拉按键界面反应缓慢；</t>
   </si>
   <si>
     <t>每次进入云服务页连接服务器时间较长</t>
+  </si>
+  <si>
+    <t>如果没有连接wifi需要等待30s，断开连接</t>
   </si>
   <si>
     <t>样品批次为蓝色时，再次点击样品批次，不弹出键盘；</t>
@@ -287,10 +296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -298,12 +307,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -318,11 +321,30 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -333,7 +355,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -346,37 +375,29 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -388,33 +409,21 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -439,7 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,19 +466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,19 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,25 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,17 +552,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="49"/>
       </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,28 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,11 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,142 +657,142 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,8 +869,8 @@
     <cellStyle name="40% - 强调文字颜色 3" xfId="43"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="44"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="输出" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="46"/>
+    <cellStyle name="输出" xfId="47"/>
     <cellStyle name="超链接" xfId="48" builtinId="8"/>
   </cellStyles>
 </styleSheet>
@@ -1616,8 +1625,8 @@
   <sheetPr/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1782,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1796,6 +1805,9 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" ht="30" spans="1:5">
       <c r="A11" s="2" t="s">
@@ -1842,7 +1854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:5">
+    <row r="14" ht="30" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1854,7 +1866,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:7">
@@ -1875,12 +1890,12 @@
         <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="45" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1895,7 +1910,7 @@
     </row>
     <row r="17" ht="30" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1908,9 +1923,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1922,10 +1937,13 @@
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" ht="30" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1938,12 +1956,12 @@
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="90" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1953,18 +1971,18 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1973,10 +1991,13 @@
       <c r="D21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" ht="30" spans="1:4">
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1985,8 +2006,11 @@
       <c r="D22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" ht="30" spans="1:4">
+      <c r="G22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1997,6 +2021,9 @@
       <c r="D23" s="1">
         <v>21</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" ht="45" spans="1:5">
       <c r="A24" s="2" t="s">
@@ -2058,7 +2085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" ht="60" spans="1:4">
+    <row r="28" ht="60" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2071,8 +2098,11 @@
       <c r="D28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" ht="30" spans="1:5">
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="30" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -2084,10 +2114,13 @@
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" ht="30" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -2101,14 +2134,17 @@
       <c r="E30" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" ht="60" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
@@ -2117,9 +2153,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" ht="45" spans="1:4">
+    <row r="32" ht="45" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -2128,10 +2164,13 @@
       <c r="D32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" ht="30" spans="1:4">
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" ht="30" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -2140,10 +2179,13 @@
       <c r="D33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" ht="30" spans="1:4">
+      <c r="G33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" ht="30" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -2152,10 +2194,13 @@
       <c r="D34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" ht="30" spans="1:4">
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" ht="30" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -2164,10 +2209,13 @@
       <c r="D35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" ht="60" spans="1:4">
+      <c r="G35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" ht="60" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -2176,10 +2224,13 @@
       <c r="D36" s="1">
         <v>34</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" ht="63" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4">
         <v>2</v>
@@ -2192,9 +2243,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" ht="30" spans="1:4">
+    <row r="38" ht="75" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -2203,10 +2254,13 @@
       <c r="D38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" ht="30" spans="1:4">
+      <c r="G38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" ht="30" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -2215,10 +2269,13 @@
       <c r="D39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -2227,13 +2284,16 @@
       <c r="D40" s="1">
         <v>38</v>
       </c>
+      <c r="G40" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" ht="30" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="1">
@@ -2242,10 +2302,10 @@
     </row>
     <row r="42" ht="105" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1">
@@ -2254,10 +2314,10 @@
     </row>
     <row r="43" ht="45" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1">
@@ -2266,10 +2326,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1">
@@ -2278,10 +2338,10 @@
     </row>
     <row r="45" ht="30" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1">
@@ -2290,10 +2350,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="1">
@@ -2302,100 +2362,100 @@
     </row>
     <row r="47" ht="30" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" ht="60" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" ht="30" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" ht="30" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" ht="45" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" ht="30" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" ht="45" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" ht="60" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" ht="47.25" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" ht="60" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2"/>
     </row>
